--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2ae5700811b7ccd/Projects/Elektronischer Würfel FabLab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{4C36DB2B-BF62-4D42-9529-FC8D6199136A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8497F74-EF94-46D3-AB8E-56CDF1D99578}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{4C36DB2B-BF62-4D42-9529-FC8D6199136A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5B61643-05AF-4F29-972E-9A83421D1A09}"/>
   <bookViews>
-    <workbookView xWindow="21315" yWindow="1035" windowWidth="29325" windowHeight="16725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28035" yWindow="480" windowWidth="29325" windowHeight="16725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Index</t>
   </si>
@@ -37,21 +37,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Customer Reference</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>Backorder</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Extended Price CHF</t>
-  </si>
-  <si>
     <t>BC1/3N-ND</t>
   </si>
   <si>
@@ -61,9 +46,6 @@
     <t>BATT HOLDER 1/3N 1 CELL PC PIN</t>
   </si>
   <si>
-    <t>1,63 Fr.</t>
-  </si>
-  <si>
     <t>754-APTR3216SECK/J3-PRVCT-ND</t>
   </si>
   <si>
@@ -73,9 +55,6 @@
     <t>LED RED CLEAR 1206 SMD</t>
   </si>
   <si>
-    <t>3,99 Fr.</t>
-  </si>
-  <si>
     <t>ATTINY85-20SU-ND</t>
   </si>
   <si>
@@ -85,9 +64,6 @@
     <t>IC MCU 8BIT 8KB FLASH 8SOIC</t>
   </si>
   <si>
-    <t>1,31 Fr.</t>
-  </si>
-  <si>
     <t>311-560GRCT-ND</t>
   </si>
   <si>
@@ -97,9 +73,6 @@
     <t>RES 560 OHM 5% 1/10W 0603</t>
   </si>
   <si>
-    <t>0,63 Fr.</t>
-  </si>
-  <si>
     <t>1292-WR06X6803FTLCT-ND</t>
   </si>
   <si>
@@ -109,9 +82,6 @@
     <t>RES 680K OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>0,09 Fr.</t>
-  </si>
-  <si>
     <t>Warenkorb Elektronischer Würfel Digikey</t>
   </si>
   <si>
@@ -119,16 +89,13 @@
   </si>
   <si>
     <t>Tilt Sensor 90deg</t>
-  </si>
-  <si>
-    <t>Aliexpress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -181,9 +148,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,7 +188,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -327,7 +294,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,7 +436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,10 +447,10 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
@@ -496,12 +463,12 @@
     <col min="10" max="10" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,23 +484,13 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -541,28 +498,18 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1.63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -570,28 +517,18 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -599,28 +536,18 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1.31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -628,28 +555,18 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="2">
-        <v>7</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.09</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -657,28 +574,18 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0.09</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -686,13 +593,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
